--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2674.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2674.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.160868380491849</v>
+        <v>1.065365076065063</v>
       </c>
       <c r="B1">
-        <v>2.421641942508846</v>
+        <v>1.217955946922302</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>1.530105948448181</v>
       </c>
       <c r="D1">
-        <v>2.329314784120871</v>
+        <v>3.132083892822266</v>
       </c>
       <c r="E1">
-        <v>1.211401261425902</v>
+        <v>4.253100872039795</v>
       </c>
     </row>
   </sheetData>
